--- a/results/mp/logistic/corona/confidence/126/desired-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/desired-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="104">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,94 +40,103 @@
     <t>name</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>problem</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>falling</t>
   </si>
   <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>recession</t>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>lower</t>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>stop</t>
+    <t>fight</t>
   </si>
   <si>
     <t>demand</t>
@@ -139,6 +148,12 @@
     <t>prices</t>
   </si>
   <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
@@ -163,6 +178,9 @@
     <t>best</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
@@ -172,91 +190,82 @@
     <t>strong</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>ready</t>
+    <t>please</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>care</t>
   </si>
   <si>
     <t>hope</t>
@@ -265,52 +274,55 @@
     <t>share</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
     <t>giving</t>
   </si>
   <si>
-    <t>easter</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>alert</t>
   </si>
   <si>
-    <t>give</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>helping</t>
+    <t>check</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>your</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>and</t>
   </si>
   <si>
     <t>corona</t>
@@ -671,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -679,10 +691,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -740,13 +752,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8918918918918919</v>
+        <v>0.92</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -758,10 +770,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -790,13 +802,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -808,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K4">
         <v>0.9583333333333334</v>
@@ -840,13 +852,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8611111111111112</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -858,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K5">
         <v>0.9491525423728814</v>
@@ -890,7 +902,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8421052631578947</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C6">
         <v>32</v>
@@ -908,19 +920,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K6">
-        <v>0.9230769230769231</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -932,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -940,13 +952,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.839041095890411</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C7">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -958,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K7">
-        <v>0.9166666666666666</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L7">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -982,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -990,13 +1002,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7931034482758621</v>
+        <v>0.8424657534246576</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>246</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>246</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1008,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K8">
-        <v>0.9090909090909091</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L8">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1032,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1040,38 +1052,38 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7692307692307693</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L9">
         <v>20</v>
       </c>
-      <c r="D9">
+      <c r="M9">
         <v>20</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9">
-        <v>0.9086161879895561</v>
-      </c>
-      <c r="L9">
-        <v>348</v>
-      </c>
-      <c r="M9">
-        <v>348</v>
-      </c>
       <c r="N9">
         <v>1</v>
       </c>
@@ -1082,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1090,13 +1102,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.76</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1111,28 +1123,28 @@
         <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K10">
-        <v>0.9069767441860465</v>
+        <v>0.9009009009009009</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1140,13 +1152,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7333333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1158,19 +1170,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K11">
-        <v>0.8928571428571429</v>
+        <v>0.8929503916449086</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>342</v>
       </c>
       <c r="M11">
-        <v>100</v>
+        <v>342</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1182,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1190,7 +1202,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7333333333333333</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C12">
         <v>22</v>
@@ -1208,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K12">
-        <v>0.8873239436619719</v>
+        <v>0.890625</v>
       </c>
       <c r="L12">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="M12">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1232,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1240,13 +1252,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.725</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1258,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K13">
-        <v>0.8793103448275862</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L13">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="M13">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1282,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1290,13 +1302,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.717948717948718</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1308,19 +1320,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K14">
-        <v>0.875</v>
+        <v>0.8793103448275862</v>
       </c>
       <c r="L14">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="M14">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1332,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1340,13 +1352,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7058823529411765</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C15">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1358,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K15">
-        <v>0.8723404255319149</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1382,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1390,13 +1402,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6686046511627907</v>
+        <v>0.725</v>
       </c>
       <c r="C16">
-        <v>345</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>345</v>
+        <v>29</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1408,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K16">
-        <v>0.86875</v>
+        <v>0.875</v>
       </c>
       <c r="L16">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M16">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1432,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1440,13 +1452,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6666666666666666</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C17">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1458,19 +1470,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K17">
-        <v>0.8584905660377359</v>
+        <v>0.8591549295774648</v>
       </c>
       <c r="L17">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="M17">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1482,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1490,13 +1502,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6610169491525424</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="C18">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1508,19 +1520,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K18">
-        <v>0.8536585365853658</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L18">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1532,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1540,13 +1552,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6410256410256411</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>348</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>348</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1558,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K19">
         <v>0.8484848484848485</v>
@@ -1590,13 +1602,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.625</v>
+        <v>0.65625</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1608,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K20">
-        <v>0.8055555555555556</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1632,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1640,13 +1652,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6174496644295302</v>
+        <v>0.656084656084656</v>
       </c>
       <c r="C21">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="D21">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1658,13 +1670,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K21">
-        <v>0.8</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L21">
         <v>32</v>
@@ -1682,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1690,7 +1702,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6129032258064516</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C22">
         <v>19</v>
@@ -1708,19 +1720,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K22">
-        <v>0.7948717948717948</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1732,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1740,13 +1752,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C23">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1758,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K23">
-        <v>0.7916666666666666</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="M23">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1782,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1790,13 +1802,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5861111111111111</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="C24">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D24">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1808,19 +1820,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K24">
-        <v>0.7857142857142857</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1832,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1840,13 +1852,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5675675675675675</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="C25">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1861,16 +1873,16 @@
         <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K25">
-        <v>0.7777777777777778</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1882,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1890,13 +1902,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5555555555555556</v>
+        <v>0.5838926174496645</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1908,19 +1920,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K26">
-        <v>0.7777777777777778</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L26">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="M26">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1932,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1940,13 +1952,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5357142857142857</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="C27">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1958,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K27">
-        <v>0.7708333333333334</v>
+        <v>0.76</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1982,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1990,13 +2002,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5064935064935064</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C28">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D28">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2008,19 +2020,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K28">
-        <v>0.7647058823529411</v>
+        <v>0.75</v>
       </c>
       <c r="L28">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2032,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2040,13 +2052,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4888888888888889</v>
+        <v>0.5</v>
       </c>
       <c r="C29">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D29">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2058,19 +2070,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K29">
-        <v>0.7529411764705882</v>
+        <v>0.7411764705882353</v>
       </c>
       <c r="L29">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M29">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2082,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2090,13 +2102,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4666666666666667</v>
+        <v>0.4933333333333333</v>
       </c>
       <c r="C30">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D30">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2108,19 +2120,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K30">
-        <v>0.75</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L30">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="M30">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2132,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2140,13 +2152,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3636363636363636</v>
+        <v>0.4</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2158,19 +2170,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K31">
-        <v>0.75</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="M31">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2182,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>7</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2190,13 +2202,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3134920634920635</v>
+        <v>0.373015873015873</v>
       </c>
       <c r="C32">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D32">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2208,19 +2220,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K32">
-        <v>0.7428571428571429</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2232,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2240,13 +2252,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2010723860589812</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="C33">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D33">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2258,19 +2270,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>298</v>
+        <v>59</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K33">
-        <v>0.7127659574468085</v>
+        <v>0.694560669456067</v>
       </c>
       <c r="L33">
-        <v>67</v>
+        <v>166</v>
       </c>
       <c r="M33">
-        <v>67</v>
+        <v>166</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2282,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>27</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2290,13 +2302,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.06333333333333334</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="C34">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D34">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2308,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>281</v>
+        <v>51</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K34">
-        <v>0.711864406779661</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L34">
-        <v>210</v>
+        <v>24</v>
       </c>
       <c r="M34">
-        <v>210</v>
+        <v>24</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2332,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>85</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2340,13 +2352,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.01636520241171404</v>
+        <v>0.3125</v>
       </c>
       <c r="C35">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D35">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2358,19 +2370,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>1142</v>
+        <v>55</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K35">
-        <v>0.7037037037037037</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2382,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2390,37 +2402,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.009980682549903412</v>
+        <v>0.1823056300268097</v>
       </c>
       <c r="C36">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="D36">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="E36">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>3075</v>
+        <v>305</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K36">
-        <v>0.7037037037037037</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2432,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2440,37 +2452,37 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.006268864638959833</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C37">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D37">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E37">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>4280</v>
+        <v>266</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K37">
-        <v>0.7</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L37">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M37">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2482,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2490,37 +2502,37 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005447470817120622</v>
+        <v>0.01982758620689655</v>
       </c>
       <c r="C38">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D38">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E38">
-        <v>0.47</v>
+        <v>0.04</v>
       </c>
       <c r="F38">
-        <v>0.53</v>
+        <v>0.96</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>5112</v>
+        <v>1137</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K38">
-        <v>0.6923076923076923</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L38">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="M38">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2532,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2540,167 +2552,287 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004425668879501106</v>
+        <v>0.01775898520084566</v>
       </c>
       <c r="C39">
+        <v>42</v>
+      </c>
+      <c r="D39">
+        <v>56</v>
+      </c>
+      <c r="E39">
+        <v>0.25</v>
+      </c>
+      <c r="F39">
+        <v>0.75</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>2323</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K39">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="L39">
+        <v>28</v>
+      </c>
+      <c r="M39">
+        <v>28</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.01178010471204189</v>
+      </c>
+      <c r="C40">
+        <v>27</v>
+      </c>
+      <c r="D40">
+        <v>44</v>
+      </c>
+      <c r="E40">
+        <v>0.39</v>
+      </c>
+      <c r="F40">
+        <v>0.61</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>2265</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K40">
+        <v>0.5573770491803278</v>
+      </c>
+      <c r="L40">
+        <v>34</v>
+      </c>
+      <c r="M40">
+        <v>34</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.008389803162310423</v>
+      </c>
+      <c r="C41">
+        <v>26</v>
+      </c>
+      <c r="D41">
+        <v>34</v>
+      </c>
+      <c r="E41">
+        <v>0.24</v>
+      </c>
+      <c r="F41">
+        <v>0.76</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>3073</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K41">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="L41">
+        <v>42</v>
+      </c>
+      <c r="M41">
+        <v>42</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.008152806894945261</v>
+      </c>
+      <c r="C42">
+        <v>35</v>
+      </c>
+      <c r="D42">
+        <v>70</v>
+      </c>
+      <c r="E42">
+        <v>0.5</v>
+      </c>
+      <c r="F42">
+        <v>0.5</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>4258</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K42">
+        <v>0.5342465753424658</v>
+      </c>
+      <c r="L42">
+        <v>39</v>
+      </c>
+      <c r="M42">
+        <v>39</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.007594936708860759</v>
+      </c>
+      <c r="C43">
+        <v>39</v>
+      </c>
+      <c r="D43">
+        <v>69</v>
+      </c>
+      <c r="E43">
+        <v>0.43</v>
+      </c>
+      <c r="F43">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>5096</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="L43">
         <v>22</v>
       </c>
-      <c r="D39">
-        <v>47</v>
-      </c>
-      <c r="E39">
-        <v>0.53</v>
-      </c>
-      <c r="F39">
-        <v>0.47</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>4949</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K39">
-        <v>0.6857142857142857</v>
-      </c>
-      <c r="L39">
-        <v>48</v>
-      </c>
-      <c r="M39">
-        <v>48</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
+      <c r="M43">
         <v>22</v>
       </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K40">
-        <v>0.6820083682008368</v>
-      </c>
-      <c r="L40">
-        <v>163</v>
-      </c>
-      <c r="M40">
-        <v>163</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K41">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="L41">
-        <v>19</v>
-      </c>
-      <c r="M41">
-        <v>19</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K42">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L42">
-        <v>22</v>
-      </c>
-      <c r="M42">
-        <v>22</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K43">
-        <v>0.6451612903225806</v>
-      </c>
-      <c r="L43">
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <v>20</v>
       </c>
-      <c r="M43">
-        <v>20</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>11</v>
-      </c>
     </row>
     <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.006242448650825614</v>
+      </c>
+      <c r="C44">
+        <v>31</v>
+      </c>
+      <c r="D44">
+        <v>61</v>
+      </c>
+      <c r="E44">
+        <v>0.49</v>
+      </c>
+      <c r="F44">
+        <v>0.51</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>4935</v>
+      </c>
       <c r="J44" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K44">
-        <v>0.6404494382022472</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="L44">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="M44">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2712,21 +2844,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K45">
-        <v>0.6222222222222222</v>
+        <v>0.453125</v>
       </c>
       <c r="L45">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2738,21 +2870,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K46">
-        <v>0.6190476190476191</v>
+        <v>0.3508771929824561</v>
       </c>
       <c r="L46">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M46">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2764,21 +2896,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K47">
-        <v>0.5573770491803278</v>
+        <v>0.2293577981651376</v>
       </c>
       <c r="L47">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M47">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2790,21 +2922,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>27</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K48">
-        <v>0.543859649122807</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="L48">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M48">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2816,21 +2948,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>26</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K49">
-        <v>0.5068493150684932</v>
+        <v>0.09342560553633218</v>
       </c>
       <c r="L49">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M49">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2842,267 +2974,241 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>36</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K50">
-        <v>0.4615384615384616</v>
+        <v>0.05137614678899083</v>
       </c>
       <c r="L50">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M50">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>42</v>
+        <v>517</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K51">
-        <v>0.421875</v>
+        <v>0.05008347245409015</v>
       </c>
       <c r="L51">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="M51">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>37</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K52">
-        <v>0.3898305084745763</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="L52">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M52">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>36</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K53">
-        <v>0.03174603174603174</v>
+        <v>0.01278676194057917</v>
       </c>
       <c r="L53">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M53">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N53">
-        <v>0.93</v>
+        <v>0.71</v>
       </c>
       <c r="O53">
-        <v>0.06999999999999995</v>
+        <v>0.29</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>1159</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K54">
-        <v>0.00835421888053467</v>
+        <v>0.01212881639481389</v>
       </c>
       <c r="L54">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M54">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>2374</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="K55">
-        <v>0.007876969242310577</v>
+        <v>0.008152806894945261</v>
       </c>
       <c r="L55">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M55">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="N55">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="O55">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>2645</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K56">
-        <v>0.007841907151819323</v>
+        <v>0.007514088916718848</v>
       </c>
       <c r="L56">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M56">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N56">
-        <v>0.66</v>
+        <v>0.77</v>
       </c>
       <c r="O56">
-        <v>0.34</v>
+        <v>0.23</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>3163</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K57">
-        <v>0.005026135906714918</v>
+        <v>0.006042296072507553</v>
       </c>
       <c r="L57">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M57">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="N57">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
       <c r="O57">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>4949</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K58">
-        <v>0.004882585445245292</v>
+        <v>0.005852516582130316</v>
       </c>
       <c r="L58">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M58">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="N58">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="O58">
-        <v>0.5600000000000001</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>4280</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K59">
-        <v>0.004866653688923496</v>
-      </c>
-      <c r="L59">
-        <v>25</v>
-      </c>
-      <c r="M59">
-        <v>53</v>
-      </c>
-      <c r="N59">
-        <v>0.47</v>
-      </c>
-      <c r="O59">
-        <v>0.53</v>
-      </c>
-      <c r="P59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>5112</v>
+        <v>5096</v>
       </c>
     </row>
   </sheetData>
